--- a/results/I3_N5_M3_T30_C100_DepCentral_s3_res_fix.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepCentral_s3_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>311.5931942152705</v>
+        <v>376.8020010033806</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01600003242492676</v>
+        <v>0.005000114440917969</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.49319421527048</v>
+        <v>32.80200100338062</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>171.16</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>105.94</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>22.35722294236247</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>26.23570364914818</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>24.22809649842574</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -914,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>24.88983639808123</v>
+        <v>29.8477529289892</v>
       </c>
     </row>
     <row r="9">
@@ -922,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.17142857142857</v>
+        <v>27.2470593404437</v>
       </c>
     </row>
     <row r="10">
@@ -930,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>29.8477529289892</v>
+        <v>25.06951674225463</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>65.72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>59.44</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>69.375</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>64.18000000000001</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>63.185</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>85.68999999999978</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>96.85999999999979</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>81.12999999999978</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>89.87499999999977</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>86.53999999999978</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>107.29</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>101.39</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>108.685</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>102.875</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.84</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>61.69000000000029</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>62.66500000000029</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>66.29000000000029</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>64.7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>61.57500000000029</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>111.695</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>104.885</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>111.735</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>119.5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>114.685</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>85.68999999999978</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>96.85999999999979</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>81.12999999999978</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>89.87499999999977</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>86.53999999999978</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>111.695</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>104.885</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>111.735</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>119.5</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>114.685</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>107.29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>101.39</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>108.685</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>102.875</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>102.84</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1560,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1571,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1582,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1593,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1604,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>11.69500000000001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -1615,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>4.885000000000005</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -1626,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>11.735</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1637,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -1648,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.685</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1659,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1670,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1681,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>8.685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>2.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1703,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>2.84</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1871,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1882,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1893,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1904,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>5.63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>13.54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1937,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>14.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1948,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1959,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.01</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2055,7 +2055,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
